--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cashadvance" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="holidayloans4u" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>select_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,74 @@
   </si>
   <si>
     <t>select_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requested_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employment_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postal_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_military</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>James</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>james@core.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,14 +666,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -666,10 +666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,6 +760,9 @@
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>select_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,16 +774,94 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="cashadvance" sheetId="1" r:id="rId1"/>
     <sheet name="holidayloans4u" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -863,17 +862,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>